--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +162,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,18 +209,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,13 +546,13 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="G2" sqref="G2:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
@@ -529,22 +583,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -552,16 +606,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -569,16 +625,18 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -586,188 +644,226 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -776,16 +872,18 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="H20" t="s">
@@ -796,13 +894,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
         <v>2</v>
       </c>
       <c r="H21">
@@ -815,180 +916,214 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
         <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -997,16 +1132,18 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="H36" t="s">
@@ -1017,13 +1154,16 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="H37">
@@ -1036,19 +1176,20 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="4">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
         <v>2</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -1057,13 +1198,16 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E39">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
         <v>15</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>15</v>
       </c>
       <c r="H39" t="s">
@@ -1074,13 +1218,16 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E40">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
         <v>15</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>15</v>
       </c>
       <c r="H40">

--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>Iteration</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Reports</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Gary</t>
   </si>
 </sst>
 </file>
@@ -233,12 +239,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -546,7 +552,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G40"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,22 +589,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -606,18 +612,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -625,18 +631,18 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -644,246 +650,278 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="H20" t="s">
@@ -894,16 +932,18 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="H21">
@@ -916,234 +956,234 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>3</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
         <v>3</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
         <v>3</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="H36" t="s">
@@ -1154,16 +1194,16 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
         <v>2</v>
       </c>
       <c r="H37">
@@ -1176,38 +1216,38 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>3</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>15</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>15</v>
       </c>
       <c r="H39" t="s">
@@ -1218,16 +1258,16 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <v>15</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>15</v>
       </c>
       <c r="H40">

--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="100" windowWidth="13380" windowHeight="5330"/>
+    <workbookView xWindow="405" yWindow="105" windowWidth="13380" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Iteration</t>
   </si>
@@ -552,20 +552,20 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -664,10 +664,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -680,10 +683,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -696,10 +702,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -714,10 +723,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -730,10 +742,13 @@
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -751,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -767,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -782,10 +797,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -798,10 +816,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -819,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -835,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -853,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -869,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -887,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -907,7 +928,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -931,7 +952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -952,10 +973,10 @@
       </c>
       <c r="I21">
         <f>H21-SUM(F2:F21)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -973,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -987,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -1003,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
@@ -1017,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -1033,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -1047,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>29</v>
@@ -1063,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -1077,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -1093,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -1107,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -1123,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -1137,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -1153,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -1171,7 +1192,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>33</v>
@@ -1193,7 +1214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -1215,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>3</v>
       </c>
@@ -1237,7 +1258,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -1257,7 +1278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
@@ -1279,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>42</v>
       </c>
@@ -1289,7 +1310,7 @@
       </c>
       <c r="F41">
         <f>SUM(F2:F40)</f>
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1329,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1320,7 +1341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>Iteration</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>Dan</t>
@@ -552,7 +549,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,8 +604,9 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G41" si="0">IF(F2=0,"Done", "")</f>
+        <v>Done</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
@@ -618,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -626,8 +624,9 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
@@ -645,20 +644,21 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -666,18 +666,19 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -685,18 +686,19 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -704,20 +706,21 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -725,18 +728,19 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -744,54 +748,63 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -799,18 +812,19 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -818,104 +832,125 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -923,21 +958,25 @@
       <c r="F19" s="1">
         <v>2</v>
       </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -945,27 +984,35 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
         <v>38</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H21">
         <f>SUM(E2:E21)</f>
@@ -973,7 +1020,7 @@
       </c>
       <c r="I21">
         <f>H21-SUM(F2:F21)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
@@ -981,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
@@ -992,13 +1039,17 @@
       </c>
       <c r="F22" s="2">
         <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
@@ -1007,14 +1058,18 @@
       <c r="F23" s="2">
         <v>3</v>
       </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
@@ -1022,13 +1077,17 @@
       </c>
       <c r="F24" s="2">
         <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
@@ -1036,15 +1095,19 @@
       </c>
       <c r="F25" s="2">
         <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
@@ -1052,13 +1115,17 @@
       </c>
       <c r="F26" s="2">
         <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
@@ -1067,14 +1134,18 @@
       <c r="F27" s="2">
         <v>3</v>
       </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
@@ -1082,13 +1153,17 @@
       </c>
       <c r="F28" s="2">
         <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
@@ -1096,15 +1171,19 @@
       </c>
       <c r="F29" s="2">
         <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
@@ -1112,13 +1191,17 @@
       </c>
       <c r="F30" s="2">
         <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
@@ -1127,14 +1210,18 @@
       <c r="F31" s="2">
         <v>3</v>
       </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
@@ -1142,13 +1229,17 @@
       </c>
       <c r="F32" s="2">
         <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
@@ -1157,14 +1248,18 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
@@ -1173,12 +1268,16 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
@@ -1187,18 +1286,22 @@
       <c r="F35" s="2">
         <v>3</v>
       </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
@@ -1207,18 +1310,22 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
         <v>38</v>
       </c>
-      <c r="I36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
@@ -1226,6 +1333,10 @@
       </c>
       <c r="F37" s="2">
         <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H37">
         <f>SUM(E22:E37)</f>
@@ -1236,15 +1347,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
@@ -1253,16 +1364,20 @@
       <c r="F38" s="3">
         <v>2</v>
       </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
@@ -1271,18 +1386,22 @@
       <c r="F39" s="3">
         <v>15</v>
       </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
         <v>38</v>
       </c>
-      <c r="I39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3">
@@ -1291,6 +1410,10 @@
       <c r="F40" s="3">
         <v>15</v>
       </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H40">
         <f>SUM(E38:E40)</f>
         <v>32</v>
@@ -1300,9 +1423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <f>SUM(E2:E40)</f>
@@ -1310,7 +1433,11 @@
       </c>
       <c r="F41">
         <f>SUM(F2:F40)</f>
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,11 +852,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
@@ -872,11 +872,11 @@
         <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
@@ -936,11 +936,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
@@ -956,11 +956,11 @@
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>36</v>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="I21">
         <f>H21-SUM(F2:F21)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F41">
         <f>SUM(F2:F40)</f>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>

--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Iteration</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Gary</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,9 +899,8 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
@@ -916,9 +918,8 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">

--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>Iteration</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Gary</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,8 +896,9 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
@@ -918,8 +916,9 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">

--- a/Project Plan/Detailed Project Plan.xlsx
+++ b/Project Plan/Detailed Project Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="105" windowWidth="13380" windowHeight="5325"/>
+    <workbookView xWindow="408" yWindow="108" windowWidth="13380" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
   <si>
     <t>Iteration</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Gary</t>
+  </si>
+  <si>
+    <t>Sprint Creation</t>
+  </si>
+  <si>
+    <t>Sprint Management</t>
   </si>
 </sst>
 </file>
@@ -546,23 +552,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -605,11 +611,11 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G41" si="0">IF(F2=0,"Done", "")</f>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G2:G45" si="0">IF(F2=0,"Done", "")</f>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -629,7 +635,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -649,7 +655,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -671,7 +677,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -691,7 +697,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -711,7 +717,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -733,7 +739,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -753,7 +759,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -775,7 +781,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -795,7 +801,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -817,7 +823,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -837,7 +843,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -859,7 +865,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -879,7 +885,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -894,14 +900,14 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -914,14 +920,14 @@
         <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -943,7 +949,7 @@
         <v>Done</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -967,7 +973,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -982,11 +988,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -995,7 +1001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -1008,11 +1014,11 @@
         <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="H21">
         <f>SUM(E2:E21)</f>
@@ -1020,10 +1026,10 @@
       </c>
       <c r="I21">
         <f>H21-SUM(F2:F21)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1033,7 +1039,9 @@
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
@@ -1045,13 +1053,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="2">
         <v>3</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1071,7 +1081,9 @@
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
@@ -1083,13 +1095,15 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
@@ -1101,7 +1115,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>27</v>
@@ -1109,7 +1123,9 @@
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
@@ -1121,13 +1137,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E27" s="2">
         <v>3</v>
       </c>
@@ -1139,7 +1157,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -1147,7 +1165,9 @@
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
@@ -1159,15 +1179,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
@@ -1177,7 +1199,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -1185,7 +1207,9 @@
       <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
@@ -1197,13 +1221,15 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -1223,7 +1249,9 @@
       <c r="C32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
@@ -1235,15 +1263,17 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
@@ -1253,15 +1283,17 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
@@ -1273,13 +1305,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" s="2">
         <v>3</v>
       </c>
@@ -1290,20 +1324,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
@@ -1314,20 +1346,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E37" s="2">
         <v>2</v>
       </c>
@@ -1338,104 +1366,198 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H37">
-        <f>SUM(E22:E37)</f>
-        <v>27</v>
-      </c>
-      <c r="I37">
-        <f>H37-SUM(F22:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2">
         <v>3</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H41">
+        <f>SUM(E22:E41)</f>
+        <v>32</v>
+      </c>
+      <c r="I41">
+        <f>H41-SUM(F22:F41)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
         <v>15</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F43" s="3">
         <v>15</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H39" t="s">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H43" t="s">
         <v>37</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
         <v>15</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F44" s="3">
         <v>15</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H40">
-        <f>SUM(E38:E40)</f>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H44">
+        <f>SUM(E42:E44)</f>
         <v>32</v>
       </c>
-      <c r="I40">
-        <f>H40-SUM(F38:F40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="I44">
+        <f>H44-SUM(F42:F44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="E41">
-        <f>SUM(E2:E40)</f>
-        <v>94</v>
-      </c>
-      <c r="F41">
-        <f>SUM(F2:F40)</f>
-        <v>65</v>
-      </c>
-      <c r="G41" t="str">
+      <c r="E45">
+        <f>SUM(E2:E44)</f>
+        <v>99</v>
+      </c>
+      <c r="F45">
+        <f>SUM(F2:F44)</f>
+        <v>66</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1443,8 +1565,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H42:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1456,7 +1578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1468,7 +1590,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
